--- a/DMSNewVSale_2025-11-06_16-06.xlsx
+++ b/DMSNewVSale_2025-11-06_16-06.xlsx
@@ -86,6 +86,18 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -132,9 +144,6 @@
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
   </si>
   <si>
     <t>24.00</t>
@@ -1249,7 +1258,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1298,7 +1307,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1308,11 +1317,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>19</v>
@@ -1324,14 +1333,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1348,7 +1357,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1357,14 +1366,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1374,14 +1383,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1390,14 +1399,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1407,14 +1416,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1423,14 +1432,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1447,7 +1456,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1529,13 +1538,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1562,13 +1571,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1579,7 +1588,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1595,7 +1604,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1605,14 +1614,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1621,14 +1630,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1638,7 +1647,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1694,7 +1703,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1727,7 +1736,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1737,11 +1746,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>11</v>
@@ -1753,14 +1762,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1777,7 +1786,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1793,24 +1802,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1819,14 +1828,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1843,7 +1852,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1852,14 +1861,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1869,14 +1878,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1885,14 +1894,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1902,14 +1911,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1918,14 +1927,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1935,14 +1944,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1951,14 +1960,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1968,11 +1977,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>11</v>
@@ -1984,14 +1993,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2001,11 +2010,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>11</v>
@@ -2017,14 +2026,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2034,11 +2043,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>11</v>
@@ -2050,14 +2059,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2074,7 +2083,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2090,7 +2099,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2107,7 +2116,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2123,7 +2132,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,7 +2165,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2173,7 +2182,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2189,7 +2198,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2206,7 +2215,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2222,7 +2231,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2232,11 +2241,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>11</v>
@@ -2248,14 +2257,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2265,14 +2274,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2281,14 +2290,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2298,14 +2307,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2331,14 +2340,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2364,51 +2373,84 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>145</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="26.25" customHeight="1">
-      <c r="N46" s="13">
-        <v>2745.5100000000002</v>
-      </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>146</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>22</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>147</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>148</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="26.25" customHeight="1">
+      <c r="N47" s="13">
+        <v>2778.5100000000002</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>149</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>150</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>151</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2612,10 +2654,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
